--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8458B19-D626-4B2F-930D-1B79F0D6ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -684,10 +683,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo = ,AND FacmNo = ,AND PrevIntDate =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>EntryDate,CustNo,FacmNo,RepayType,PayIntDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -740,11 +735,15 @@
  郵局：003 + ReturnCode(2)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>CustNo = ,AND FacmNo = ,AND PrevIntDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1111,8 +1110,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1203,23 +1202,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1255,23 +1237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,11 +1412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1499,7 +1464,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1647,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1685,6 +1650,7 @@
       <c r="E14" s="21">
         <v>8</v>
       </c>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="26">
@@ -1724,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1884,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1924,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2004,7 +1970,7 @@
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2150,7 +2116,7 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="31" customFormat="1" ht="113.4">
@@ -2171,7 +2137,7 @@
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.2" customHeight="1">
@@ -2296,12 +2262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2426,7 +2392,7 @@
         <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>109</v>
@@ -2462,7 +2428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -182,10 +182,6 @@
   <si>
     <t>entryDateRng</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
@@ -597,14 +593,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>入帳時更新</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -676,10 +664,6 @@
   </si>
   <si>
     <t>findL4450PrevIntDateFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayType = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -737,6 +721,30 @@
   </si>
   <si>
     <t>CustNo = ,AND FacmNo = ,AND PrevIntDate =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxSeq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayType = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1415,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1436,7 +1444,7 @@
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>38</v>
@@ -1464,7 +1472,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1490,7 +1498,7 @@
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1503,7 +1511,7 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1549,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1600,10 +1608,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>28</v>
@@ -1612,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1620,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="21">
         <v>8</v>
@@ -1639,13 +1647,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="21">
         <v>8</v>
@@ -1657,10 +1665,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>37</v>
@@ -1670,7 +1678,7 @@
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4">
@@ -1678,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>22</v>
@@ -1690,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1710,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1718,20 +1726,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="E18" s="21">
         <v>2</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1739,10 +1747,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>28</v>
@@ -1758,10 +1766,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>28</v>
@@ -1780,7 +1788,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>28</v>
@@ -1789,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1797,20 +1805,20 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="21">
         <v>8</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1818,19 +1826,19 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="21">
         <v>8</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="64.8">
@@ -1838,10 +1846,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>29</v>
@@ -1850,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
@@ -1858,19 +1866,19 @@
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="21">
         <v>1</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
@@ -1890,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1901,7 +1909,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>30</v>
@@ -1910,7 +1918,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1921,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>29</v>
@@ -1930,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1938,13 +1946,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="26">
         <v>8</v>
@@ -1957,10 +1965,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>29</v>
@@ -1970,7 +1978,7 @@
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="22" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1978,20 +1986,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="E31" s="28">
         <v>8</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6">
@@ -1999,10 +2007,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>29</v>
@@ -2012,7 +2020,7 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2020,20 +2028,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="28">
         <v>6</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2041,19 +2049,19 @@
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="21">
         <v>8</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="50" customFormat="1">
@@ -2061,10 +2069,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>29</v>
@@ -2074,7 +2082,7 @@
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="50" customFormat="1">
@@ -2082,10 +2090,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>29</v>
@@ -2095,7 +2103,7 @@
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="31" customFormat="1" ht="64.8">
@@ -2103,20 +2111,20 @@
         <v>29</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="29">
         <v>1</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="31" customFormat="1" ht="113.4">
@@ -2124,20 +2132,20 @@
         <v>30</v>
       </c>
       <c r="B38" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>141</v>
-      </c>
       <c r="D38" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="29">
         <v>2</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.2" customHeight="1">
@@ -2145,13 +2153,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="E39" s="29">
         <v>300</v>
@@ -2164,20 +2172,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>80</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2185,19 +2193,19 @@
         <v>33</v>
       </c>
       <c r="B41" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="D41" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="E41" s="21">
         <v>6</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="35"/>
     </row>
@@ -2206,20 +2214,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>86</v>
-      </c>
       <c r="D42" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>80</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2227,22 +2235,22 @@
         <v>35</v>
       </c>
       <c r="B43" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>88</v>
-      </c>
       <c r="D43" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="21">
         <v>6</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2263,11 +2271,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2294,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -2316,108 +2324,116 @@
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2448,80 +2464,80 @@
   <sheetData>
     <row r="1" spans="2:6" s="43" customFormat="1">
       <c r="B1" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="42" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="42"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="E5" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="C7" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="C8" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1458C61-CBFC-4D4D-8A0C-BEF44B43161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -751,7 +752,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -949,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,10 +966,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -980,9 +981,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -995,9 +993,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,18 +1016,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1118,8 +1101,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1135,9 +1118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1175,9 +1158,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1212,7 +1195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1247,7 +1230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1420,29 +1403,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.109375" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
         <v>99</v>
       </c>
@@ -1454,82 +1437,82 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1548,708 +1531,697 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="145.80000000000001">
-      <c r="A12" s="26">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>8</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>8</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>3</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32.4">
-      <c r="A16" s="26">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>3</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="30">
         <v>14</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>2</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>14</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>14</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="32.4">
-      <c r="A21" s="26">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>14</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>8</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="26">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>8</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="64.8">
-      <c r="A24" s="26">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="20" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.6">
-      <c r="A25" s="26">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>1</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32.4">
-      <c r="A26" s="26">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>100</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="26">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>10</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="17">
         <v>8</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="22">
         <v>8</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6">
-      <c r="A32" s="26">
+      <c r="A32" s="17">
         <v>24</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="22">
         <v>1</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="20" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="26">
+      <c r="A33" s="17">
         <v>25</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="22">
         <v>6</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="20" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="26">
+      <c r="A34" s="17">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>8</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="50" customFormat="1">
-      <c r="A35" s="44">
+    <row r="35" spans="1:7" s="44" customFormat="1">
+      <c r="A35" s="38">
         <v>27</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="38">
         <v>6</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49" t="s">
+      <c r="F35" s="42"/>
+      <c r="G35" s="43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="50" customFormat="1">
-      <c r="A36" s="44">
+    <row r="36" spans="1:7" s="44" customFormat="1">
+      <c r="A36" s="38">
         <v>28</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="38">
         <v>8</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49" t="s">
+      <c r="F36" s="42"/>
+      <c r="G36" s="43" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="31" customFormat="1" ht="64.8">
-      <c r="A37" s="26">
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="64.8">
+      <c r="A37" s="17">
         <v>29</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="23">
         <v>1</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="22" t="s">
+      <c r="F37" s="23"/>
+      <c r="G37" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="31" customFormat="1" ht="113.4">
-      <c r="A38" s="26">
+    <row r="38" spans="1:7" s="25" customFormat="1" ht="113.4">
+      <c r="A38" s="17">
         <v>30</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="23">
         <v>2</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="22" t="s">
+      <c r="F38" s="23"/>
+      <c r="G38" s="20" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A39" s="26">
+      <c r="A39" s="17">
         <v>31</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="23">
         <v>300</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="38"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26">
+      <c r="A40" s="17">
         <v>32</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="24" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="26">
+      <c r="A41" s="17">
         <v>33</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>6</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="35"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="26">
+      <c r="A42" s="17">
         <v>34</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="26">
+      <c r="A43" s="17">
         <v>35</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>6</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="29" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2270,17 +2242,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -2403,7 +2375,7 @@
         <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2444,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2453,90 +2425,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="41"/>
-    <col min="2" max="2" width="29.6640625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="21" style="41" customWidth="1"/>
-    <col min="5" max="5" width="63.21875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="55.109375" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="8.88671875" style="35"/>
+    <col min="2" max="2" width="29.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="21" style="35" customWidth="1"/>
+    <col min="5" max="5" width="63.21875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" style="35" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="43" customFormat="1">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="2:6" s="37" customFormat="1">
+      <c r="B1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="34" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="35" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="35" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="35" t="s">
         <v>163</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankDeductDtl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1458C61-CBFC-4D4D-8A0C-BEF44B43161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C1D66B-E53E-4DEE-BC1B-020FF5DD4B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -311,10 +311,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -524,19 +520,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>帳號授權檢核未過</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>超過帳戶限額</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>扣款金額為零</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>狀態碼(1)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -748,12 +736,35 @@
     <t>AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>狀態碼(1)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號授權檢核</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用戶編號已存在</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthWarn</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號授權提醒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1406,11 +1417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1421,13 +1432,13 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>38</v>
@@ -1436,7 +1447,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
       <c r="C2" s="8" t="s">
@@ -1449,13 +1460,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="32.4">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1464,7 +1475,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
@@ -1475,7 +1486,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
@@ -1488,20 +1499,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1523,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>44</v>
@@ -1552,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1586,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="145.80000000000001">
+    <row r="12" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1603,10 +1614,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1614,7 +1625,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>44</v>
@@ -1624,15 +1635,15 @@
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>44</v>
@@ -1642,7 +1653,7 @@
       </c>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1662,12 +1673,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.4">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>22</v>
@@ -1679,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1722,15 +1733,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>28</v>
@@ -1740,15 +1751,15 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>28</v>
@@ -1758,7 +1769,7 @@
       </c>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>28</v>
@@ -1775,10 +1786,10 @@
         <v>14</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1798,7 +1809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1818,15 +1829,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="64.8">
+    <row r="24" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>29</v>
@@ -1835,30 +1846,30 @@
         <v>1</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48.6">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="19">
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32.4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
@@ -1875,10 +1886,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
@@ -1898,7 +1909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1918,15 +1929,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>21</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>44</v>
@@ -1936,15 +1947,15 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>29</v>
@@ -1953,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>23</v>
       </c>
@@ -1976,7 +1987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="48.6">
+    <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>24</v>
       </c>
@@ -1984,7 +1995,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>29</v>
@@ -1993,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>25</v>
       </c>
@@ -2016,12 +2027,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>33</v>
@@ -2033,18 +2044,18 @@
         <v>8</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="44" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="44" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
         <v>27</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>29</v>
@@ -2054,18 +2065,18 @@
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="44" customFormat="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="44" customFormat="1" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>28</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>29</v>
@@ -2075,15 +2086,15 @@
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="25" customFormat="1" ht="64.8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>29</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>59</v>
@@ -2096,18 +2107,18 @@
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="25" customFormat="1" ht="113.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="25" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>30</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>58</v>
@@ -2117,21 +2128,21 @@
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.2" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>31</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="26" t="s">
         <v>118</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>119</v>
       </c>
       <c r="E39" s="23">
         <v>300</v>
@@ -2139,7 +2150,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>32</v>
       </c>
@@ -2150,79 +2161,79 @@
         <v>77</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>33</v>
       </c>
       <c r="B41" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>82</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>83</v>
       </c>
       <c r="E41" s="19">
         <v>6</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>34</v>
       </c>
       <c r="B42" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" s="27" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="E42" s="19"/>
       <c r="F42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>35</v>
       </c>
       <c r="B43" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43" s="19">
         <v>6</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2245,12 +2256,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.109375" style="1" customWidth="1"/>
@@ -2258,7 +2269,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2280,7 +2291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -2291,7 +2302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -2299,113 +2310,113 @@
         <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2417,13 +2428,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="35"/>
     <col min="2" max="2" width="29.6640625" style="35" customWidth="1"/>
@@ -2434,82 +2445,97 @@
     <col min="7" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="37" customFormat="1">
+    <row r="1" spans="2:6" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="33" t="s">
+      <c r="C3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="D3" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="35" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="36" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="C4" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="E5" s="35" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="C7" s="35" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="C8" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>163</v>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
